--- a/formatos_hoja_de_calculo/Formato - Caracterizacion - 2023.xlsx
+++ b/formatos_hoja_de_calculo/Formato - Caracterizacion - 2023.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{306F814E-5157-4BC0-83D6-2882D541DD7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7CA1900-333B-4F21-B6B7-BEF71701BCCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -992,6 +992,48 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1036,48 +1078,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1480,10 +1480,10 @@
   <dimension ref="A1:BJ67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="6" topLeftCell="BD7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="6" topLeftCell="F7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="BD7" sqref="BD7"/>
+      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1562,87 +1562,87 @@
       <c r="I3" s="38"/>
     </row>
     <row r="4" spans="1:62" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="39"/>
-      <c r="B4" s="50" t="s">
+      <c r="A4" s="53"/>
+      <c r="B4" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="51"/>
-      <c r="D4" s="49" t="s">
+      <c r="C4" s="65"/>
+      <c r="D4" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="49"/>
-      <c r="M4" s="49"/>
-      <c r="N4" s="49"/>
-      <c r="O4" s="49"/>
-      <c r="P4" s="49"/>
-      <c r="Q4" s="49"/>
-      <c r="R4" s="49"/>
-      <c r="S4" s="41" t="s">
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="63"/>
+      <c r="K4" s="63"/>
+      <c r="L4" s="63"/>
+      <c r="M4" s="63"/>
+      <c r="N4" s="63"/>
+      <c r="O4" s="63"/>
+      <c r="P4" s="63"/>
+      <c r="Q4" s="63"/>
+      <c r="R4" s="63"/>
+      <c r="S4" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="T4" s="42"/>
-      <c r="U4" s="42"/>
-      <c r="V4" s="42"/>
-      <c r="W4" s="42"/>
-      <c r="X4" s="42"/>
-      <c r="Y4" s="42"/>
-      <c r="Z4" s="42"/>
-      <c r="AA4" s="42"/>
-      <c r="AB4" s="42"/>
-      <c r="AC4" s="42"/>
-      <c r="AD4" s="44" t="s">
+      <c r="T4" s="56"/>
+      <c r="U4" s="56"/>
+      <c r="V4" s="56"/>
+      <c r="W4" s="56"/>
+      <c r="X4" s="56"/>
+      <c r="Y4" s="56"/>
+      <c r="Z4" s="56"/>
+      <c r="AA4" s="56"/>
+      <c r="AB4" s="56"/>
+      <c r="AC4" s="56"/>
+      <c r="AD4" s="58" t="s">
         <v>62</v>
       </c>
-      <c r="AE4" s="44"/>
-      <c r="AF4" s="44"/>
-      <c r="AG4" s="44"/>
-      <c r="AH4" s="44"/>
-      <c r="AI4" s="55" t="s">
+      <c r="AE4" s="58"/>
+      <c r="AF4" s="58"/>
+      <c r="AG4" s="58"/>
+      <c r="AH4" s="58"/>
+      <c r="AI4" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="AJ4" s="55"/>
-      <c r="AK4" s="55"/>
-      <c r="AL4" s="55"/>
-      <c r="AM4" s="58" t="s">
+      <c r="AJ4" s="52"/>
+      <c r="AK4" s="52"/>
+      <c r="AL4" s="52"/>
+      <c r="AM4" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="AN4" s="58"/>
-      <c r="AO4" s="58"/>
-      <c r="AP4" s="58"/>
-      <c r="AQ4" s="58"/>
-      <c r="AR4" s="58"/>
-      <c r="AS4" s="58"/>
-      <c r="AT4" s="58"/>
-      <c r="AU4" s="66" t="s">
+      <c r="AN4" s="44"/>
+      <c r="AO4" s="44"/>
+      <c r="AP4" s="44"/>
+      <c r="AQ4" s="44"/>
+      <c r="AR4" s="44"/>
+      <c r="AS4" s="44"/>
+      <c r="AT4" s="44"/>
+      <c r="AU4" s="41" t="s">
         <v>98</v>
       </c>
-      <c r="AV4" s="67"/>
-      <c r="AW4" s="67"/>
-      <c r="AX4" s="67"/>
-      <c r="AY4" s="67"/>
-      <c r="AZ4" s="67"/>
-      <c r="BA4" s="67"/>
-      <c r="BB4" s="67"/>
-      <c r="BC4" s="67"/>
-      <c r="BD4" s="67"/>
-      <c r="BE4" s="67"/>
-      <c r="BF4" s="67"/>
-      <c r="BG4" s="67"/>
-      <c r="BH4" s="67"/>
-      <c r="BI4" s="67"/>
-      <c r="BJ4" s="67"/>
+      <c r="AV4" s="42"/>
+      <c r="AW4" s="42"/>
+      <c r="AX4" s="42"/>
+      <c r="AY4" s="42"/>
+      <c r="AZ4" s="42"/>
+      <c r="BA4" s="42"/>
+      <c r="BB4" s="42"/>
+      <c r="BC4" s="42"/>
+      <c r="BD4" s="42"/>
+      <c r="BE4" s="42"/>
+      <c r="BF4" s="42"/>
+      <c r="BG4" s="42"/>
+      <c r="BH4" s="42"/>
+      <c r="BI4" s="42"/>
+      <c r="BJ4" s="42"/>
     </row>
     <row r="5" spans="1:62" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="40"/>
-      <c r="B5" s="52"/>
-      <c r="C5" s="53"/>
+      <c r="A5" s="54"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="67"/>
       <c r="D5" s="15"/>
       <c r="E5" s="14"/>
       <c r="F5" s="14"/>
@@ -1656,88 +1656,88 @@
       <c r="N5" s="14"/>
       <c r="O5" s="14"/>
       <c r="P5" s="14"/>
-      <c r="Q5" s="48" t="s">
+      <c r="Q5" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="R5" s="48"/>
-      <c r="S5" s="41"/>
-      <c r="T5" s="42"/>
-      <c r="U5" s="42"/>
-      <c r="V5" s="42"/>
-      <c r="W5" s="42"/>
-      <c r="X5" s="42"/>
-      <c r="Y5" s="42"/>
-      <c r="Z5" s="42"/>
-      <c r="AA5" s="42"/>
-      <c r="AB5" s="42"/>
-      <c r="AC5" s="42"/>
-      <c r="AD5" s="43" t="s">
+      <c r="R5" s="62"/>
+      <c r="S5" s="55"/>
+      <c r="T5" s="56"/>
+      <c r="U5" s="56"/>
+      <c r="V5" s="56"/>
+      <c r="W5" s="56"/>
+      <c r="X5" s="56"/>
+      <c r="Y5" s="56"/>
+      <c r="Z5" s="56"/>
+      <c r="AA5" s="56"/>
+      <c r="AB5" s="56"/>
+      <c r="AC5" s="56"/>
+      <c r="AD5" s="57" t="s">
         <v>63</v>
       </c>
-      <c r="AE5" s="43"/>
-      <c r="AF5" s="45"/>
-      <c r="AG5" s="46"/>
-      <c r="AH5" s="47"/>
-      <c r="AI5" s="54" t="s">
+      <c r="AE5" s="57"/>
+      <c r="AF5" s="59"/>
+      <c r="AG5" s="60"/>
+      <c r="AH5" s="61"/>
+      <c r="AI5" s="51" t="s">
         <v>70</v>
       </c>
-      <c r="AJ5" s="54"/>
-      <c r="AK5" s="54" t="s">
+      <c r="AJ5" s="51"/>
+      <c r="AK5" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="AL5" s="54"/>
-      <c r="AM5" s="56" t="s">
+      <c r="AL5" s="51"/>
+      <c r="AM5" s="50" t="s">
         <v>80</v>
       </c>
-      <c r="AN5" s="56" t="s">
+      <c r="AN5" s="50" t="s">
         <v>81</v>
       </c>
-      <c r="AO5" s="56" t="s">
+      <c r="AO5" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="AP5" s="56" t="s">
+      <c r="AP5" s="50" t="s">
         <v>83</v>
       </c>
-      <c r="AQ5" s="56" t="s">
+      <c r="AQ5" s="50" t="s">
         <v>84</v>
       </c>
-      <c r="AR5" s="56" t="s">
+      <c r="AR5" s="50" t="s">
         <v>85</v>
       </c>
-      <c r="AS5" s="56" t="s">
+      <c r="AS5" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="AT5" s="57" t="s">
+      <c r="AT5" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="AU5" s="59" t="s">
+      <c r="AU5" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="AV5" s="60"/>
-      <c r="AW5" s="61"/>
-      <c r="AX5" s="62" t="s">
+      <c r="AV5" s="46"/>
+      <c r="AW5" s="47"/>
+      <c r="AX5" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="AY5" s="62"/>
-      <c r="AZ5" s="62"/>
-      <c r="BA5" s="63"/>
-      <c r="BB5" s="64" t="s">
+      <c r="AY5" s="39"/>
+      <c r="AZ5" s="39"/>
+      <c r="BA5" s="48"/>
+      <c r="BB5" s="49" t="s">
         <v>115</v>
       </c>
-      <c r="BC5" s="64"/>
-      <c r="BD5" s="64"/>
-      <c r="BE5" s="64"/>
-      <c r="BF5" s="62" t="s">
+      <c r="BC5" s="49"/>
+      <c r="BD5" s="49"/>
+      <c r="BE5" s="49"/>
+      <c r="BF5" s="39" t="s">
         <v>116</v>
       </c>
-      <c r="BG5" s="62" t="s">
+      <c r="BG5" s="39" t="s">
         <v>117</v>
       </c>
-      <c r="BH5" s="62" t="s">
+      <c r="BH5" s="39" t="s">
         <v>118</v>
       </c>
       <c r="BI5" s="31"/>
-      <c r="BJ5" s="65" t="s">
+      <c r="BJ5" s="40" t="s">
         <v>119</v>
       </c>
     </row>
@@ -1856,14 +1856,14 @@
       <c r="AL6" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="AM6" s="56"/>
-      <c r="AN6" s="56"/>
-      <c r="AO6" s="56"/>
-      <c r="AP6" s="56"/>
-      <c r="AQ6" s="56"/>
-      <c r="AR6" s="56"/>
-      <c r="AS6" s="56"/>
-      <c r="AT6" s="57"/>
+      <c r="AM6" s="50"/>
+      <c r="AN6" s="50"/>
+      <c r="AO6" s="50"/>
+      <c r="AP6" s="50"/>
+      <c r="AQ6" s="50"/>
+      <c r="AR6" s="50"/>
+      <c r="AS6" s="50"/>
+      <c r="AT6" s="43"/>
       <c r="AU6" s="30" t="s">
         <v>36</v>
       </c>
@@ -1897,13 +1897,13 @@
       <c r="BE6" s="31" t="s">
         <v>114</v>
       </c>
-      <c r="BF6" s="62"/>
-      <c r="BG6" s="62"/>
-      <c r="BH6" s="62"/>
+      <c r="BF6" s="39"/>
+      <c r="BG6" s="39"/>
+      <c r="BH6" s="39"/>
       <c r="BI6" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="BJ6" s="65"/>
+      <c r="BJ6" s="40"/>
     </row>
     <row r="7" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
@@ -5811,11 +5811,19 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="BF5:BF6"/>
-    <mergeCell ref="BG5:BG6"/>
-    <mergeCell ref="BH5:BH6"/>
-    <mergeCell ref="BJ5:BJ6"/>
-    <mergeCell ref="AU4:BJ4"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="S4:AC5"/>
+    <mergeCell ref="AD5:AE5"/>
+    <mergeCell ref="AD4:AH4"/>
+    <mergeCell ref="AF5:AH5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="D4:R4"/>
+    <mergeCell ref="B4:C5"/>
+    <mergeCell ref="AI5:AJ5"/>
+    <mergeCell ref="AK5:AL5"/>
+    <mergeCell ref="AI4:AL4"/>
+    <mergeCell ref="AM5:AM6"/>
+    <mergeCell ref="AN5:AN6"/>
     <mergeCell ref="AT5:AT6"/>
     <mergeCell ref="AM4:AT4"/>
     <mergeCell ref="AU5:AW5"/>
@@ -5826,19 +5834,11 @@
     <mergeCell ref="AQ5:AQ6"/>
     <mergeCell ref="AR5:AR6"/>
     <mergeCell ref="AS5:AS6"/>
-    <mergeCell ref="AI5:AJ5"/>
-    <mergeCell ref="AK5:AL5"/>
-    <mergeCell ref="AI4:AL4"/>
-    <mergeCell ref="AM5:AM6"/>
-    <mergeCell ref="AN5:AN6"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="S4:AC5"/>
-    <mergeCell ref="AD5:AE5"/>
-    <mergeCell ref="AD4:AH4"/>
-    <mergeCell ref="AF5:AH5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="D4:R4"/>
-    <mergeCell ref="B4:C5"/>
+    <mergeCell ref="BF5:BF6"/>
+    <mergeCell ref="BG5:BG6"/>
+    <mergeCell ref="BH5:BH6"/>
+    <mergeCell ref="BJ5:BJ6"/>
+    <mergeCell ref="AU4:BJ4"/>
   </mergeCells>
   <conditionalFormatting sqref="BB7:BE67">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
